--- a/output2_party_chi.xlsx
+++ b/output2_party_chi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="output2_party.csv" sheetId="1" r:id="rId1"/>
@@ -3350,12 +3350,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -3447,7 +3453,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3459,8 +3465,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3471,18 +3479,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3815,8 +3826,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D1080"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A1063" workbookViewId="0">
+      <selection activeCell="I1084" sqref="I1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4000,7 +4011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4015,7 +4026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4300,7 +4311,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -4450,7 +4461,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -4465,7 +4476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -4480,7 +4491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -5140,7 +5151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -5155,7 +5166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -5170,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -5185,7 +5196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -5200,7 +5211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -5215,7 +5226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -5230,7 +5241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -5245,7 +5256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -5260,7 +5271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -5305,7 +5316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -5320,7 +5331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -5335,7 +5346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -12040,7 +12051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1">
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>547</v>
       </c>
@@ -12055,7 +12066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1">
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>548</v>
       </c>
@@ -12070,7 +12081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1">
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>549</v>
       </c>
@@ -12085,7 +12096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1">
+    <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>550</v>
       </c>
@@ -12100,7 +12111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1">
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>551</v>
       </c>
@@ -12115,7 +12126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1">
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>552</v>
       </c>
@@ -12130,7 +12141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1">
+    <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>553</v>
       </c>
@@ -12145,7 +12156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1">
+    <row r="556" spans="1:4">
       <c r="A556" t="s">
         <v>554</v>
       </c>
@@ -12160,7 +12171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1">
+    <row r="557" spans="1:4">
       <c r="A557" t="s">
         <v>555</v>
       </c>
@@ -12175,7 +12186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1">
+    <row r="558" spans="1:4">
       <c r="A558" t="s">
         <v>556</v>
       </c>
@@ -12190,7 +12201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1">
+    <row r="559" spans="1:4">
       <c r="A559" t="s">
         <v>557</v>
       </c>
@@ -12205,7 +12216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1">
+    <row r="560" spans="1:4">
       <c r="A560" t="s">
         <v>558</v>
       </c>
@@ -12220,7 +12231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1">
+    <row r="561" spans="1:4">
       <c r="A561" t="s">
         <v>559</v>
       </c>
@@ -12235,7 +12246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1">
+    <row r="562" spans="1:4">
       <c r="A562" t="s">
         <v>560</v>
       </c>
@@ -12250,7 +12261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1">
+    <row r="563" spans="1:4">
       <c r="A563" t="s">
         <v>561</v>
       </c>
@@ -12265,7 +12276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1">
+    <row r="564" spans="1:4">
       <c r="A564" t="s">
         <v>562</v>
       </c>
@@ -12280,7 +12291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1">
+    <row r="565" spans="1:4">
       <c r="A565" t="s">
         <v>563</v>
       </c>
@@ -12295,7 +12306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1">
+    <row r="566" spans="1:4">
       <c r="A566" t="s">
         <v>564</v>
       </c>
@@ -12310,7 +12321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1">
+    <row r="567" spans="1:4">
       <c r="A567" t="s">
         <v>565</v>
       </c>
@@ -12325,7 +12336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1">
+    <row r="568" spans="1:4">
       <c r="A568" t="s">
         <v>566</v>
       </c>
@@ -12340,7 +12351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1">
+    <row r="569" spans="1:4">
       <c r="A569" t="s">
         <v>567</v>
       </c>
@@ -12355,7 +12366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1">
+    <row r="570" spans="1:4">
       <c r="A570" t="s">
         <v>568</v>
       </c>
@@ -12400,7 +12411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1">
+    <row r="573" spans="1:4">
       <c r="A573" t="s">
         <v>571</v>
       </c>
@@ -12415,7 +12426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1">
+    <row r="574" spans="1:4">
       <c r="A574" t="s">
         <v>572</v>
       </c>
@@ -12430,7 +12441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1">
+    <row r="575" spans="1:4">
       <c r="A575" t="s">
         <v>573</v>
       </c>
@@ -12445,7 +12456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1">
+    <row r="576" spans="1:4">
       <c r="A576" t="s">
         <v>574</v>
       </c>
@@ -12460,7 +12471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1">
+    <row r="577" spans="1:4">
       <c r="A577" t="s">
         <v>575</v>
       </c>
@@ -12475,7 +12486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1">
+    <row r="578" spans="1:4">
       <c r="A578" t="s">
         <v>576</v>
       </c>
@@ -12490,7 +12501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1">
+    <row r="579" spans="1:4">
       <c r="A579" t="s">
         <v>577</v>
       </c>
@@ -12505,7 +12516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1">
+    <row r="580" spans="1:4">
       <c r="A580" t="s">
         <v>578</v>
       </c>
@@ -12520,7 +12531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1">
+    <row r="581" spans="1:4">
       <c r="A581" t="s">
         <v>579</v>
       </c>
@@ -12535,7 +12546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1">
+    <row r="582" spans="1:4">
       <c r="A582" t="s">
         <v>580</v>
       </c>
@@ -12550,7 +12561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1">
+    <row r="583" spans="1:4">
       <c r="A583" t="s">
         <v>581</v>
       </c>
@@ -12565,7 +12576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1">
+    <row r="584" spans="1:4">
       <c r="A584" t="s">
         <v>582</v>
       </c>
@@ -12580,7 +12591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1">
+    <row r="585" spans="1:4">
       <c r="A585" t="s">
         <v>583</v>
       </c>
@@ -12595,7 +12606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1">
+    <row r="586" spans="1:4">
       <c r="A586" t="s">
         <v>584</v>
       </c>
@@ -12610,7 +12621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1">
+    <row r="587" spans="1:4">
       <c r="A587" t="s">
         <v>585</v>
       </c>
@@ -12625,7 +12636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1">
+    <row r="588" spans="1:4">
       <c r="A588" t="s">
         <v>586</v>
       </c>
@@ -12640,7 +12651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1">
+    <row r="589" spans="1:4">
       <c r="A589" t="s">
         <v>587</v>
       </c>
@@ -12655,7 +12666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1">
+    <row r="590" spans="1:4">
       <c r="A590" t="s">
         <v>588</v>
       </c>
@@ -12670,7 +12681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1">
+    <row r="591" spans="1:4">
       <c r="A591" t="s">
         <v>589</v>
       </c>
@@ -12685,7 +12696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1">
+    <row r="592" spans="1:4">
       <c r="A592" t="s">
         <v>590</v>
       </c>
@@ -12700,7 +12711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1">
+    <row r="593" spans="1:4">
       <c r="A593" t="s">
         <v>591</v>
       </c>
@@ -12715,7 +12726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1">
+    <row r="594" spans="1:4">
       <c r="A594" t="s">
         <v>592</v>
       </c>
@@ -12730,7 +12741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1">
+    <row r="595" spans="1:4">
       <c r="A595" t="s">
         <v>593</v>
       </c>
@@ -12745,7 +12756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1">
+    <row r="596" spans="1:4">
       <c r="A596" t="s">
         <v>594</v>
       </c>
@@ -12760,7 +12771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1">
+    <row r="597" spans="1:4">
       <c r="A597" t="s">
         <v>595</v>
       </c>
@@ -12775,7 +12786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1">
+    <row r="598" spans="1:4">
       <c r="A598" t="s">
         <v>596</v>
       </c>
@@ -12790,7 +12801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1">
+    <row r="599" spans="1:4">
       <c r="A599" t="s">
         <v>597</v>
       </c>
@@ -12805,7 +12816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1">
+    <row r="600" spans="1:4">
       <c r="A600" t="s">
         <v>598</v>
       </c>
@@ -12820,7 +12831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1">
+    <row r="601" spans="1:4">
       <c r="A601" t="s">
         <v>599</v>
       </c>
@@ -12835,7 +12846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1">
+    <row r="602" spans="1:4">
       <c r="A602" t="s">
         <v>600</v>
       </c>
@@ -12850,7 +12861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1">
+    <row r="603" spans="1:4">
       <c r="A603" t="s">
         <v>601</v>
       </c>
@@ -12865,7 +12876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1">
+    <row r="604" spans="1:4">
       <c r="A604" t="s">
         <v>602</v>
       </c>
@@ -12880,7 +12891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1">
+    <row r="605" spans="1:4">
       <c r="A605" t="s">
         <v>603</v>
       </c>
@@ -12895,7 +12906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1">
+    <row r="606" spans="1:4">
       <c r="A606" t="s">
         <v>604</v>
       </c>
@@ -12910,7 +12921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1">
+    <row r="607" spans="1:4">
       <c r="A607" t="s">
         <v>605</v>
       </c>
@@ -12925,7 +12936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1">
+    <row r="608" spans="1:4">
       <c r="A608" t="s">
         <v>606</v>
       </c>
@@ -12940,7 +12951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1">
+    <row r="609" spans="1:4">
       <c r="A609" t="s">
         <v>607</v>
       </c>
@@ -12955,7 +12966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1">
+    <row r="610" spans="1:4">
       <c r="A610" t="s">
         <v>608</v>
       </c>
@@ -12970,7 +12981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1">
+    <row r="611" spans="1:4">
       <c r="A611" t="s">
         <v>609</v>
       </c>
@@ -12985,7 +12996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1">
+    <row r="612" spans="1:4">
       <c r="A612" t="s">
         <v>610</v>
       </c>
@@ -13000,7 +13011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1">
+    <row r="613" spans="1:4">
       <c r="A613" t="s">
         <v>611</v>
       </c>
@@ -13015,7 +13026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1">
+    <row r="614" spans="1:4">
       <c r="A614" t="s">
         <v>612</v>
       </c>
@@ -13030,7 +13041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1">
+    <row r="615" spans="1:4">
       <c r="A615" t="s">
         <v>613</v>
       </c>
@@ -13045,7 +13056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1">
+    <row r="616" spans="1:4">
       <c r="A616" t="s">
         <v>614</v>
       </c>
@@ -13060,7 +13071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1">
+    <row r="617" spans="1:4">
       <c r="A617" t="s">
         <v>615</v>
       </c>
@@ -13090,7 +13101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1">
+    <row r="619" spans="1:4">
       <c r="A619" t="s">
         <v>617</v>
       </c>
@@ -13105,7 +13116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1">
+    <row r="620" spans="1:4">
       <c r="A620" t="s">
         <v>618</v>
       </c>
@@ -18880,7 +18891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" hidden="1">
+    <row r="1005" spans="1:4">
       <c r="A1005" t="s">
         <v>1002</v>
       </c>
@@ -18895,7 +18906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" hidden="1">
+    <row r="1006" spans="1:4">
       <c r="A1006" t="s">
         <v>1003</v>
       </c>
@@ -18910,7 +18921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" hidden="1">
+    <row r="1007" spans="1:4">
       <c r="A1007" t="s">
         <v>1004</v>
       </c>
@@ -18925,7 +18936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" hidden="1">
+    <row r="1008" spans="1:4">
       <c r="A1008" t="s">
         <v>1005</v>
       </c>
@@ -18940,7 +18951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" hidden="1">
+    <row r="1009" spans="1:4">
       <c r="A1009" t="s">
         <v>1006</v>
       </c>
@@ -18955,7 +18966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" hidden="1">
+    <row r="1010" spans="1:4">
       <c r="A1010" t="s">
         <v>1007</v>
       </c>
@@ -18970,7 +18981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" hidden="1">
+    <row r="1011" spans="1:4">
       <c r="A1011" t="s">
         <v>1008</v>
       </c>
@@ -18985,7 +18996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" hidden="1">
+    <row r="1012" spans="1:4">
       <c r="A1012" t="s">
         <v>1009</v>
       </c>
@@ -19000,7 +19011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" hidden="1">
+    <row r="1013" spans="1:4">
       <c r="A1013" t="s">
         <v>1010</v>
       </c>
@@ -19015,7 +19026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" hidden="1">
+    <row r="1014" spans="1:4">
       <c r="A1014" t="s">
         <v>1011</v>
       </c>
@@ -19030,7 +19041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" hidden="1">
+    <row r="1015" spans="1:4">
       <c r="A1015" t="s">
         <v>1012</v>
       </c>
@@ -19045,7 +19056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" hidden="1">
+    <row r="1016" spans="1:4">
       <c r="A1016" t="s">
         <v>1013</v>
       </c>
@@ -19075,7 +19086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" hidden="1">
+    <row r="1018" spans="1:4">
       <c r="A1018" t="s">
         <v>1015</v>
       </c>
@@ -19420,7 +19431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" hidden="1">
+    <row r="1041" spans="1:4">
       <c r="A1041" t="s">
         <v>1038</v>
       </c>
@@ -19435,7 +19446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" hidden="1">
+    <row r="1042" spans="1:4">
       <c r="A1042" t="s">
         <v>1039</v>
       </c>
@@ -19450,7 +19461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" hidden="1">
+    <row r="1043" spans="1:4">
       <c r="A1043" t="s">
         <v>1040</v>
       </c>
@@ -19465,7 +19476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" hidden="1">
+    <row r="1044" spans="1:4">
       <c r="A1044" t="s">
         <v>1041</v>
       </c>
@@ -19480,7 +19491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" hidden="1">
+    <row r="1045" spans="1:4">
       <c r="A1045" t="s">
         <v>1042</v>
       </c>
@@ -19585,7 +19596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" hidden="1">
+    <row r="1052" spans="1:4">
       <c r="A1052" t="s">
         <v>1049</v>
       </c>
@@ -19600,7 +19611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" hidden="1">
+    <row r="1053" spans="1:4">
       <c r="A1053" t="s">
         <v>1050</v>
       </c>
@@ -19615,7 +19626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" hidden="1">
+    <row r="1054" spans="1:4">
       <c r="A1054" t="s">
         <v>1051</v>
       </c>
@@ -19630,7 +19641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" hidden="1">
+    <row r="1055" spans="1:4">
       <c r="A1055" t="s">
         <v>1052</v>
       </c>
@@ -19645,7 +19656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" hidden="1">
+    <row r="1056" spans="1:4">
       <c r="A1056" t="s">
         <v>1053</v>
       </c>
@@ -19660,7 +19671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" hidden="1">
+    <row r="1057" spans="1:4">
       <c r="A1057" t="s">
         <v>1054</v>
       </c>
@@ -19675,7 +19686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1058" spans="1:4" hidden="1">
+    <row r="1058" spans="1:4">
       <c r="A1058" t="s">
         <v>1055</v>
       </c>
@@ -19750,7 +19761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" hidden="1">
+    <row r="1063" spans="1:4">
       <c r="A1063" t="s">
         <v>1059</v>
       </c>
@@ -19780,7 +19791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1065" spans="1:4" hidden="1">
+    <row r="1065" spans="1:4">
       <c r="A1065" t="s">
         <v>1061</v>
       </c>
@@ -19795,7 +19806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" hidden="1">
+    <row r="1066" spans="1:4">
       <c r="A1066" t="s">
         <v>1062</v>
       </c>
@@ -19810,7 +19821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" hidden="1">
+    <row r="1067" spans="1:4">
       <c r="A1067" t="s">
         <v>1063</v>
       </c>
@@ -19825,7 +19836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" hidden="1">
+    <row r="1068" spans="1:4">
       <c r="A1068" t="s">
         <v>1064</v>
       </c>
@@ -19840,7 +19851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1069" spans="1:4" hidden="1">
+    <row r="1069" spans="1:4">
       <c r="A1069" t="s">
         <v>1065</v>
       </c>
@@ -20034,6 +20045,8 @@
         <filter val="146"/>
         <filter val="15"/>
         <filter val="16"/>
+        <filter val="17"/>
+        <filter val="2"/>
         <filter val="20"/>
         <filter val="215"/>
         <filter val="218"/>
@@ -20059,6 +20072,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
+        <filter val="1"/>
         <filter val="10"/>
         <filter val="104"/>
         <filter val="11"/>
@@ -20071,6 +20085,7 @@
         <filter val="167"/>
         <filter val="17"/>
         <filter val="170"/>
+        <filter val="2"/>
         <filter val="21"/>
         <filter val="23"/>
         <filter val="3"/>
@@ -20090,11 +20105,6 @@
         <filter val="9"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="10"/>
-      </customFilters>
-    </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -20110,8 +20120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20151,19 +20161,19 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>118</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>72</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>190</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -20440,19 +20450,19 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10">
         <v>218</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="10">
         <v>170</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="10">
         <v>388</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="10">
         <v>1</v>
       </c>
     </row>
@@ -20559,19 +20569,19 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="10">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="10">
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="10">
         <v>10</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="10">
         <v>1</v>
       </c>
     </row>
@@ -20964,7 +20974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
